--- a/template/daily.xlsx
+++ b/template/daily.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kishimotokeisuke/fullstack/fullstack-node/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC4D456-92DA-B042-88AE-52A43C29FFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1694A7-6507-7F4C-83CF-7741F37887DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原紙" sheetId="18" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="89">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -375,10 +375,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ビジネスマナー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>挨拶・コミュニケーション</t>
     <rPh sb="0" eb="2">
       <t>アイサテゥ</t>
@@ -389,13 +385,6 @@
     <t>時間管理</t>
     <rPh sb="0" eb="4">
       <t>ジカn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>業務意識</t>
-    <rPh sb="0" eb="4">
-      <t>ギョウム</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -716,37 +705,6 @@
     </rPh>
     <rPh sb="67" eb="69">
       <t>チョウサ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・期限に間に合わせるために、10分考えて分からない時は講師に質問しました。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発表をしていて気づいた点</t>
-    <rPh sb="0" eb="2">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キヅイタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スピーチ・グループディスカッション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>発表を聞いて気づいた点</t>
-    <rPh sb="0" eb="2">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キヅイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -838,29 +796,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>緊張して練習よりも早口になっていた。</t>
-    <rPh sb="0" eb="2">
-      <t>キンチョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>レンシュウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>目線がホワイトボードを向くことが多い。</t>
-    <rPh sb="0" eb="2">
-      <t>メセn</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ムクコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>改善点に対する具体的解決策</t>
     <rPh sb="0" eb="2">
       <t>カイゼn</t>
@@ -909,6 +844,41 @@
     <rPh sb="51" eb="53">
       <t>チュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発表をして/聞いていて気づいた点</t>
+    <rPh sb="0" eb="2">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キヅイタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・緊張して練習よりも早口になっていた。
+・目線がホワイトボードを向くことが多い。</t>
+    <rPh sb="1" eb="3">
+      <t>キンチョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>レンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ハヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピーチ/グループディスカッション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒューマンスキル/ビジネスマナー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1300,7 +1270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1430,6 +1400,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1774,7 +1750,7 @@
   </sheetPr>
   <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1789,13 +1765,13 @@
     <row r="1" spans="2:6" ht="7" customHeight="1"/>
     <row r="2" spans="2:6" ht="25">
       <c r="B2" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="9" customHeight="1"/>
     <row r="4" spans="2:6">
       <c r="B4" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -1807,16 +1783,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="29" customHeight="1">
@@ -1829,7 +1805,7 @@
     <row r="7" spans="2:6" ht="10" customHeight="1"/>
     <row r="8" spans="2:6">
       <c r="B8" s="35" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -1838,30 +1814,30 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>54</v>
-      </c>
       <c r="E9" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="2:6" ht="68" customHeight="1">
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="2:6" ht="9" customHeight="1"/>
     <row r="12" spans="2:6">
       <c r="B12" s="35" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -1873,28 +1849,26 @@
         <v>3</v>
       </c>
       <c r="C13" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>82</v>
-      </c>
       <c r="E13" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F13" s="46"/>
     </row>
     <row r="14" spans="2:6" ht="78" customHeight="1">
       <c r="B14" s="31"/>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
+      <c r="F14" s="47"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
@@ -1906,16 +1880,16 @@
         <v>4</v>
       </c>
       <c r="C17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="F17" s="26" t="s">
         <v>57</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="96" customHeight="1">
@@ -1928,7 +1902,7 @@
     <row r="19" spans="2:6" ht="11" customHeight="1"/>
     <row r="20" spans="2:6">
       <c r="B20" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -1937,19 +1911,19 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="48" customHeight="1">
@@ -1962,7 +1936,7 @@
     <row r="23" spans="2:6" ht="10" customHeight="1"/>
     <row r="24" spans="2:6">
       <c r="B24" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -1999,8 +1973,8 @@
   </sheetPr>
   <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2013,13 +1987,13 @@
     <row r="1" spans="2:6" ht="7" customHeight="1"/>
     <row r="2" spans="2:6" ht="25">
       <c r="B2" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="9" customHeight="1"/>
     <row r="4" spans="2:6">
       <c r="B4" s="35" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="35"/>
@@ -2031,16 +2005,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="29" customHeight="1">
@@ -2048,22 +2022,22 @@
         <v>45033</v>
       </c>
       <c r="C6" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="10" customHeight="1"/>
     <row r="8" spans="2:6">
       <c r="B8" s="35" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -2072,42 +2046,38 @@
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>47</v>
-      </c>
       <c r="E9" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>48</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F9" s="26"/>
     </row>
     <row r="10" spans="2:6" ht="68" customHeight="1">
       <c r="B10" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>73</v>
-      </c>
       <c r="E10" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F10" s="30" t="s">
-        <v>81</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="2:6" ht="9" customHeight="1"/>
     <row r="12" spans="2:6">
       <c r="B12" s="35" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="35"/>
@@ -2119,38 +2089,34 @@
         <v>3</v>
       </c>
       <c r="C13" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>82</v>
-      </c>
       <c r="E13" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13" s="26" t="s">
-        <v>91</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="F13" s="26"/>
     </row>
     <row r="14" spans="2:6" ht="78" customHeight="1">
       <c r="B14" s="31" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>92</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="F14" s="30"/>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="35"/>
@@ -2162,39 +2128,39 @@
         <v>4</v>
       </c>
       <c r="C17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="F17" s="26" t="s">
         <v>57</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="96" customHeight="1">
       <c r="B18" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="E18" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="F18" s="30" t="s">
         <v>78</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="11" customHeight="1"/>
     <row r="20" spans="2:6">
       <c r="B20" s="35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
@@ -2203,19 +2169,19 @@
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="F21" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="48" customHeight="1">
@@ -2238,7 +2204,7 @@
     <row r="23" spans="2:6" ht="10" customHeight="1"/>
     <row r="24" spans="2:6">
       <c r="B24" s="35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C24" s="35"/>
       <c r="D24" s="35"/>
@@ -2247,7 +2213,7 @@
     </row>
     <row r="25" spans="2:6" ht="112" customHeight="1">
       <c r="B25" s="34" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C25" s="36"/>
       <c r="D25" s="36"/>

--- a/template/daily.xlsx
+++ b/template/daily.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kishimotokeisuke/fullstack/fullstack-node/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1E940B-C600-474A-929A-12357C96AC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2443B34-94F7-2046-A215-098C51EF93B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20340" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原紙(通常)" sheetId="18" r:id="rId1"/>
@@ -821,7 +821,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -893,6 +893,9 @@
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -921,6 +924,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,13 +1292,13 @@
     </row>
     <row r="3" spans="2:6" ht="9" customHeight="1"/>
     <row r="4" spans="2:6">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="13" t="s">
@@ -1317,13 +1326,13 @@
     </row>
     <row r="7" spans="2:6" ht="10" customHeight="1"/>
     <row r="8" spans="2:6">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="13" t="s">
@@ -1349,13 +1358,13 @@
     </row>
     <row r="11" spans="2:6" ht="9" customHeight="1"/>
     <row r="12" spans="2:6">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="13" t="s">
@@ -1380,13 +1389,13 @@
       <c r="F14" s="21"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="13" t="s">
@@ -1414,13 +1423,13 @@
     </row>
     <row r="19" spans="2:6" ht="11" customHeight="1"/>
     <row r="20" spans="2:6">
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="13" t="s">
@@ -1430,10 +1439,10 @@
         <v>29</v>
       </c>
       <c r="D21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>30</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>31</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>32</v>
@@ -1448,20 +1457,20 @@
     </row>
     <row r="23" spans="2:6" ht="10" customHeight="1"/>
     <row r="24" spans="2:6">
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="2:6" ht="112" customHeight="1">
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1487,7 +1496,7 @@
   <dimension ref="B1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1506,13 +1515,13 @@
     </row>
     <row r="3" spans="2:6" ht="9" customHeight="1"/>
     <row r="4" spans="2:6">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="13" t="s">
@@ -1540,13 +1549,13 @@
     </row>
     <row r="7" spans="2:6" ht="10" customHeight="1"/>
     <row r="8" spans="2:6">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="13" t="s">
@@ -1572,13 +1581,13 @@
     </row>
     <row r="11" spans="2:6" ht="9" customHeight="1"/>
     <row r="12" spans="2:6">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="13" t="s">
@@ -1603,13 +1612,13 @@
       <c r="F14" s="21"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="13" t="s">
@@ -1629,11 +1638,11 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="43" customHeight="1">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="13" t="s">
@@ -1649,28 +1658,28 @@
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="2:6" ht="113" customHeight="1">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="2:6" ht="10" customHeight="1"/>
     <row r="22" spans="2:6">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="2:6" ht="112" customHeight="1">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1694,7 +1703,9 @@
   </sheetPr>
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1712,13 +1723,13 @@
     </row>
     <row r="3" spans="2:6" ht="9" customHeight="1"/>
     <row r="4" spans="2:6">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="13" t="s">
@@ -1746,13 +1757,13 @@
     </row>
     <row r="7" spans="2:6" ht="10" customHeight="1"/>
     <row r="8" spans="2:6">
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="13" t="s">
@@ -1778,13 +1789,13 @@
     </row>
     <row r="11" spans="2:6" ht="9" customHeight="1"/>
     <row r="12" spans="2:6">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="13" t="s">
@@ -1809,13 +1820,13 @@
       <c r="F14" s="21"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="13" t="s">
@@ -1835,11 +1846,11 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="43" customHeight="1">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="26"/>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="13" t="s">
@@ -1855,28 +1866,28 @@
       <c r="F19" s="20"/>
     </row>
     <row r="20" spans="2:6" ht="113" customHeight="1">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
     </row>
     <row r="21" spans="2:6" ht="10" customHeight="1"/>
     <row r="22" spans="2:6">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="2:6" ht="112" customHeight="1">
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1920,10 +1931,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="5"/>
       <c r="D1" s="23"/>
       <c r="E1" s="24"/>
@@ -1931,28 +1942,28 @@
       <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="5"/>
       <c r="D2" s="25"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="32" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1">
       <c r="A6" s="11" t="s">

--- a/template/daily.xlsx
+++ b/template/daily.xlsx
@@ -8,30 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kishimotokeisuke/fullstack/fullstack-node/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2443B34-94F7-2046-A215-098C51EF93B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD19625-7378-8747-9897-5DB7375321F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20300" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原紙(通常)" sheetId="18" r:id="rId1"/>
     <sheet name="原紙(個人開発)" sheetId="20" r:id="rId2"/>
     <sheet name="原紙(チーム開発)" sheetId="21" r:id="rId3"/>
-    <sheet name="進捗管理表" sheetId="10" r:id="rId4"/>
+    <sheet name="実績管理表" sheetId="10" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="22" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'原紙(チーム開発)'!$A$1:$G$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'原紙(個人開発)'!$A$1:$G$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'原紙(通常)'!$A$1:$G$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">進捗管理表!$A$1:$G$15</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">進捗管理表!$1:$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">実績管理表!$A$1:$I$46</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">実績管理表!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -54,76 +54,6 @@
     <t>概要</t>
     <rPh sb="0" eb="2">
       <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>進捗管理シート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小テスト / 確認テスト</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初回得点</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合格日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>提出日</t>
-    <rPh sb="0" eb="2">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カリキュラム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>演習問題 / 課題</t>
-    <rPh sb="0" eb="2">
-      <t>エンシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>初回実施日</t>
-    <rPh sb="0" eb="5">
-      <t>ショカイジッシビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>受講日</t>
-    <rPh sb="0" eb="3">
-      <t>ジュコウビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>演習内容</t>
-    <rPh sb="0" eb="4">
-      <t>エンシュウナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -439,10 +369,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト単元</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>チーム開発</t>
     <rPh sb="3" eb="5">
       <t>コジンカイ</t>
@@ -505,6 +431,75 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t xml:space="preserve">ニッポウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績管理表</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ヒョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習 / 課題</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウモンダイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施日</t>
+    <rPh sb="0" eb="3">
+      <t>ジッセィ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 対象単元</t>
+    <rPh sb="1" eb="3">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均点</t>
+    <rPh sb="0" eb="3">
+      <t>ヘイキンテn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>講義実施日</t>
+    <rPh sb="0" eb="5">
+      <t>コウギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象単元</t>
+    <rPh sb="0" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>提出日</t>
+    <rPh sb="0" eb="3">
+      <t>テイシュテゥ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -513,10 +508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m/d\(aaa\)"/>
-  </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,29 +522,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -578,6 +547,37 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Meiryo UI"/>
       <family val="2"/>
@@ -610,7 +610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -632,26 +632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -662,64 +642,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="double">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -768,43 +690,6 @@
       </diagonal>
     </border>
     <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="double">
         <color indexed="64"/>
@@ -817,119 +702,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1278,199 +1216,199 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="12" customWidth="1"/>
-    <col min="2" max="6" width="35.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="6" width="35.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="7" customHeight="1"/>
     <row r="2" spans="2:6" ht="25">
-      <c r="B2" s="15" t="s">
-        <v>18</v>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="9" customHeight="1"/>
     <row r="4" spans="2:6">
-      <c r="B4" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="B4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>16</v>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="29" customHeight="1">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:6" ht="10" customHeight="1"/>
     <row r="8" spans="2:6">
-      <c r="B8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="20"/>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" ht="68" customHeight="1">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:6" ht="9" customHeight="1"/>
     <row r="12" spans="2:6">
-      <c r="B12" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
+      <c r="B12" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:6">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="20"/>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" ht="78" customHeight="1">
-      <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="21"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
+      <c r="B16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
     </row>
     <row r="17" spans="2:6">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>26</v>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="96" customHeight="1">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="2:6" ht="11" customHeight="1"/>
     <row r="20" spans="2:6">
-      <c r="B20" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
+      <c r="B20" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
     </row>
     <row r="21" spans="2:6">
-      <c r="B21" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>32</v>
+      <c r="B21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="48" customHeight="1">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="2:6" ht="10" customHeight="1"/>
     <row r="24" spans="2:6">
-      <c r="B24" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
+      <c r="B24" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="2:6" ht="112" customHeight="1">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1501,185 +1439,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="12" customWidth="1"/>
-    <col min="2" max="6" width="35.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="6" width="35.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="7" customHeight="1"/>
     <row r="2" spans="2:6" ht="25">
-      <c r="B2" s="15" t="s">
-        <v>54</v>
+      <c r="B2" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="9" customHeight="1"/>
     <row r="4" spans="2:6">
-      <c r="B4" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="B4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>16</v>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="29" customHeight="1">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:6" ht="10" customHeight="1"/>
     <row r="8" spans="2:6">
-      <c r="B8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="20"/>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" ht="68" customHeight="1">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:6" ht="9" customHeight="1"/>
     <row r="12" spans="2:6">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="2:6" ht="78" customHeight="1">
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="43" customHeight="1">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="2:6" ht="78" customHeight="1">
-      <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="43" customHeight="1">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" ht="113" customHeight="1">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="2:6" ht="10" customHeight="1"/>
     <row r="22" spans="2:6">
-      <c r="B22" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="B22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="2:6" ht="112" customHeight="1">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1709,185 +1647,185 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="12" customWidth="1"/>
-    <col min="2" max="6" width="35.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="4.1640625" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="3.5" style="1" customWidth="1"/>
+    <col min="2" max="6" width="35.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="7" customHeight="1"/>
     <row r="2" spans="2:6" ht="25">
-      <c r="B2" s="15" t="s">
-        <v>55</v>
+      <c r="B2" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="9" customHeight="1"/>
     <row r="4" spans="2:6">
-      <c r="B4" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
+      <c r="B4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="2:6">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="13" t="s">
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>16</v>
+      <c r="F5" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="29" customHeight="1">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="2:6" ht="10" customHeight="1"/>
     <row r="8" spans="2:6">
-      <c r="B8" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
+      <c r="B8" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="20"/>
+      <c r="B9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:6" ht="68" customHeight="1">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="21"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="2:6" ht="9" customHeight="1"/>
     <row r="12" spans="2:6">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="2:6" ht="78" customHeight="1">
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="43" customHeight="1">
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="20"/>
-    </row>
-    <row r="14" spans="2:6" ht="78" customHeight="1">
-      <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="16" spans="2:6">
-      <c r="B16" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="43" customHeight="1">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="26"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" ht="113" customHeight="1">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="2:6" ht="10" customHeight="1"/>
     <row r="22" spans="2:6">
-      <c r="B22" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
+      <c r="B22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="2:6" ht="112" customHeight="1">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1909,177 +1847,537 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="R24" sqref="R24:AG35"/>
-      <selection pane="topRight" activeCell="R24" sqref="R24:AG35"/>
-      <selection pane="bottomLeft" activeCell="R24" sqref="R24:AG35"/>
-      <selection pane="bottomRight" sqref="A1:B2"/>
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="5" width="9.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11" style="29" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="29" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="29" customWidth="1"/>
+    <col min="7" max="7" width="13" style="29" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="29" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="29" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1">
-      <c r="A6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A1" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:9" ht="16.5" customHeight="1">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="5" spans="1:9" ht="25" customHeight="1">
+      <c r="A5" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="36"/>
+      <c r="I5" s="37"/>
+    </row>
+    <row r="6" spans="1:9" ht="25" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="40" customHeight="1" thickTop="1">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="40" customHeight="1">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="40" customHeight="1">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" ht="40" customHeight="1">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" ht="40" customHeight="1">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="40" customHeight="1">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="40" customHeight="1">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="40" customHeight="1">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" ht="40" customHeight="1">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="2"/>
+      <c r="C6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="51" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+    </row>
+    <row r="8" spans="1:9" ht="51" customHeight="1">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" ht="51" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" ht="51" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" ht="51" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:9" ht="51" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:9" ht="51" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:9" ht="51" customHeight="1">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="51" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:9" ht="51" customHeight="1">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" ht="51" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" ht="51" customHeight="1">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" ht="51" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" ht="51" customHeight="1">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" ht="51" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" ht="51" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" ht="51" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" ht="51" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" ht="51" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" ht="51" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" ht="51" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" ht="51" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" ht="51" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" ht="51" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" ht="51" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" ht="51" customHeight="1">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" ht="51" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" ht="51" customHeight="1">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" ht="51" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9" ht="51" customHeight="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="1:9" ht="51" customHeight="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:9" ht="51" customHeight="1">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:9" ht="51" customHeight="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" ht="51" customHeight="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="1:9" ht="51" customHeight="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+    </row>
+    <row r="42" spans="1:9" ht="51" customHeight="1">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+    </row>
+    <row r="43" spans="1:9" ht="51" customHeight="1">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+    </row>
+    <row r="44" spans="1:9" ht="51" customHeight="1">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+    </row>
+    <row r="45" spans="1:9" ht="51" customHeight="1">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+    </row>
+    <row r="46" spans="1:9" ht="51" customHeight="1">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="E2:G2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P/&amp;N&amp;R株式会社テクノコア
 教育事業部ＩＴスクールＡｘｉＺ</oddFooter>

--- a/template/daily.xlsx
+++ b/template/daily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kishimotokeisuke/fullstack/fullstack-node/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD19625-7378-8747-9897-5DB7375321F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A822B3-5A4B-064B-94DA-6501C8BC7965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'原紙(チーム開発)'!$A$1:$G$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'原紙(個人開発)'!$A$1:$G$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'原紙(通常)'!$A$1:$G$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">実績管理表!$A$1:$I$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">実績管理表!$A$1:$J$46</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">実績管理表!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="55">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -483,23 +483,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>講義実施日</t>
-    <rPh sb="0" eb="5">
-      <t>コウギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>対象単元</t>
-    <rPh sb="0" eb="4">
-      <t>タイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>提出日</t>
     <rPh sb="0" eb="3">
       <t>テイシュテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単元</t>
+    <rPh sb="0" eb="2">
+      <t>タンゲn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習・課題</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演習名</t>
+    <rPh sb="0" eb="3">
+      <t>エンシュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -610,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -752,6 +762,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -860,14 +883,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1847,10 +1870,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1858,33 +1881,34 @@
     <col min="1" max="1" width="11" style="29" customWidth="1"/>
     <col min="2" max="2" width="29.6640625" style="29" customWidth="1"/>
     <col min="3" max="6" width="10.83203125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="13" style="29" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="29" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" style="29" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="29"/>
+    <col min="7" max="7" width="14.6640625" style="29" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="29" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="29" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="38"/>
+      <c r="B1" s="37"/>
       <c r="C1" s="26"/>
       <c r="D1" s="27"/>
       <c r="E1" s="28"/>
       <c r="F1" s="27"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
+    <row r="2" spans="1:10" ht="16.5" customHeight="1">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
       <c r="C2" s="26"/>
       <c r="D2" s="30"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-    </row>
-    <row r="5" spans="1:9" ht="25" customHeight="1">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="5" spans="1:10" ht="25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>46</v>
       </c>
@@ -1893,13 +1917,14 @@
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="39" t="s">
         <v>47</v>
       </c>
       <c r="H5" s="36"/>
-      <c r="I5" s="37"/>
-    </row>
-    <row r="6" spans="1:9" ht="25" customHeight="1">
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+    </row>
+    <row r="6" spans="1:10" ht="25" customHeight="1">
       <c r="A6" s="21" t="s">
         <v>48</v>
       </c>
@@ -1919,16 +1944,19 @@
         <v>22</v>
       </c>
       <c r="G6" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="51" customHeight="1">
+    </row>
+    <row r="7" spans="1:10" ht="51" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="7"/>
@@ -1938,8 +1966,9 @@
       <c r="G7" s="20"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
-    </row>
-    <row r="8" spans="1:9" ht="51" customHeight="1">
+      <c r="J7" s="16"/>
+    </row>
+    <row r="8" spans="1:10" ht="51" customHeight="1">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="7"/>
@@ -1949,8 +1978,9 @@
       <c r="G8" s="20"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
-    </row>
-    <row r="9" spans="1:9" ht="51" customHeight="1">
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" ht="51" customHeight="1">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="7"/>
@@ -1960,8 +1990,9 @@
       <c r="G9" s="20"/>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" ht="51" customHeight="1">
+      <c r="J9" s="16"/>
+    </row>
+    <row r="10" spans="1:10" ht="51" customHeight="1">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="7"/>
@@ -1971,8 +2002,9 @@
       <c r="G10" s="20"/>
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" ht="51" customHeight="1">
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11" spans="1:10" ht="51" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="7"/>
@@ -1982,8 +2014,9 @@
       <c r="G11" s="20"/>
       <c r="H11" s="16"/>
       <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" ht="51" customHeight="1">
+      <c r="J11" s="16"/>
+    </row>
+    <row r="12" spans="1:10" ht="51" customHeight="1">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="7"/>
@@ -1993,8 +2026,9 @@
       <c r="G12" s="20"/>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:9" ht="51" customHeight="1">
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13" spans="1:10" ht="51" customHeight="1">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="7"/>
@@ -2004,8 +2038,9 @@
       <c r="G13" s="20"/>
       <c r="H13" s="16"/>
       <c r="I13" s="16"/>
-    </row>
-    <row r="14" spans="1:9" ht="51" customHeight="1">
+      <c r="J13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" ht="51" customHeight="1">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="7"/>
@@ -2015,8 +2050,9 @@
       <c r="G14" s="20"/>
       <c r="H14" s="16"/>
       <c r="I14" s="16"/>
-    </row>
-    <row r="15" spans="1:9" ht="51" customHeight="1">
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" ht="51" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="7"/>
@@ -2026,8 +2062,9 @@
       <c r="G15" s="20"/>
       <c r="H15" s="16"/>
       <c r="I15" s="16"/>
-    </row>
-    <row r="16" spans="1:9" ht="51" customHeight="1">
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" ht="51" customHeight="1">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="7"/>
@@ -2037,8 +2074,9 @@
       <c r="G16" s="20"/>
       <c r="H16" s="16"/>
       <c r="I16" s="16"/>
-    </row>
-    <row r="17" spans="1:9" ht="51" customHeight="1">
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17" spans="1:10" ht="51" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="7"/>
@@ -2048,8 +2086,9 @@
       <c r="G17" s="20"/>
       <c r="H17" s="16"/>
       <c r="I17" s="16"/>
-    </row>
-    <row r="18" spans="1:9" ht="51" customHeight="1">
+      <c r="J17" s="16"/>
+    </row>
+    <row r="18" spans="1:10" ht="51" customHeight="1">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="7"/>
@@ -2059,8 +2098,9 @@
       <c r="G18" s="20"/>
       <c r="H18" s="16"/>
       <c r="I18" s="16"/>
-    </row>
-    <row r="19" spans="1:9" ht="51" customHeight="1">
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19" spans="1:10" ht="51" customHeight="1">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="7"/>
@@ -2070,8 +2110,9 @@
       <c r="G19" s="20"/>
       <c r="H19" s="16"/>
       <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" ht="51" customHeight="1">
+      <c r="J19" s="16"/>
+    </row>
+    <row r="20" spans="1:10" ht="51" customHeight="1">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="7"/>
@@ -2081,8 +2122,9 @@
       <c r="G20" s="20"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
-    </row>
-    <row r="21" spans="1:9" ht="51" customHeight="1">
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21" spans="1:10" ht="51" customHeight="1">
       <c r="A21" s="15"/>
       <c r="B21" s="16"/>
       <c r="C21" s="7"/>
@@ -2092,8 +2134,9 @@
       <c r="G21" s="20"/>
       <c r="H21" s="16"/>
       <c r="I21" s="16"/>
-    </row>
-    <row r="22" spans="1:9" ht="51" customHeight="1">
+      <c r="J21" s="16"/>
+    </row>
+    <row r="22" spans="1:10" ht="51" customHeight="1">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="7"/>
@@ -2103,8 +2146,9 @@
       <c r="G22" s="20"/>
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
-    </row>
-    <row r="23" spans="1:9" ht="51" customHeight="1">
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" ht="51" customHeight="1">
       <c r="A23" s="15"/>
       <c r="B23" s="16"/>
       <c r="C23" s="7"/>
@@ -2114,8 +2158,9 @@
       <c r="G23" s="20"/>
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
-    </row>
-    <row r="24" spans="1:9" ht="51" customHeight="1">
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" ht="51" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="7"/>
@@ -2125,8 +2170,9 @@
       <c r="G24" s="20"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
-    </row>
-    <row r="25" spans="1:9" ht="51" customHeight="1">
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" ht="51" customHeight="1">
       <c r="A25" s="15"/>
       <c r="B25" s="16"/>
       <c r="C25" s="7"/>
@@ -2136,8 +2182,9 @@
       <c r="G25" s="20"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:9" ht="51" customHeight="1">
+      <c r="J25" s="16"/>
+    </row>
+    <row r="26" spans="1:10" ht="51" customHeight="1">
       <c r="A26" s="15"/>
       <c r="B26" s="16"/>
       <c r="C26" s="7"/>
@@ -2147,8 +2194,9 @@
       <c r="G26" s="20"/>
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
-    </row>
-    <row r="27" spans="1:9" ht="51" customHeight="1">
+      <c r="J26" s="16"/>
+    </row>
+    <row r="27" spans="1:10" ht="51" customHeight="1">
       <c r="A27" s="15"/>
       <c r="B27" s="16"/>
       <c r="C27" s="7"/>
@@ -2158,8 +2206,9 @@
       <c r="G27" s="20"/>
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
-    </row>
-    <row r="28" spans="1:9" ht="51" customHeight="1">
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" ht="51" customHeight="1">
       <c r="A28" s="15"/>
       <c r="B28" s="16"/>
       <c r="C28" s="7"/>
@@ -2169,8 +2218,9 @@
       <c r="G28" s="20"/>
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
-    </row>
-    <row r="29" spans="1:9" ht="51" customHeight="1">
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" ht="51" customHeight="1">
       <c r="A29" s="15"/>
       <c r="B29" s="16"/>
       <c r="C29" s="7"/>
@@ -2180,8 +2230,9 @@
       <c r="G29" s="20"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
-    </row>
-    <row r="30" spans="1:9" ht="51" customHeight="1">
+      <c r="J29" s="16"/>
+    </row>
+    <row r="30" spans="1:10" ht="51" customHeight="1">
       <c r="A30" s="15"/>
       <c r="B30" s="16"/>
       <c r="C30" s="7"/>
@@ -2191,8 +2242,9 @@
       <c r="G30" s="20"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
-    </row>
-    <row r="31" spans="1:9" ht="51" customHeight="1">
+      <c r="J30" s="16"/>
+    </row>
+    <row r="31" spans="1:10" ht="51" customHeight="1">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="7"/>
@@ -2202,8 +2254,9 @@
       <c r="G31" s="20"/>
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
-    </row>
-    <row r="32" spans="1:9" ht="51" customHeight="1">
+      <c r="J31" s="16"/>
+    </row>
+    <row r="32" spans="1:10" ht="51" customHeight="1">
       <c r="A32" s="15"/>
       <c r="B32" s="16"/>
       <c r="C32" s="7"/>
@@ -2213,8 +2266,9 @@
       <c r="G32" s="20"/>
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
-    </row>
-    <row r="33" spans="1:9" ht="51" customHeight="1">
+      <c r="J32" s="16"/>
+    </row>
+    <row r="33" spans="1:10" ht="51" customHeight="1">
       <c r="A33" s="15"/>
       <c r="B33" s="16"/>
       <c r="C33" s="7"/>
@@ -2224,8 +2278,9 @@
       <c r="G33" s="20"/>
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
-    </row>
-    <row r="34" spans="1:9" ht="51" customHeight="1">
+      <c r="J33" s="16"/>
+    </row>
+    <row r="34" spans="1:10" ht="51" customHeight="1">
       <c r="A34" s="15"/>
       <c r="B34" s="16"/>
       <c r="C34" s="7"/>
@@ -2235,8 +2290,9 @@
       <c r="G34" s="20"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-    </row>
-    <row r="35" spans="1:9" ht="51" customHeight="1">
+      <c r="J34" s="16"/>
+    </row>
+    <row r="35" spans="1:10" ht="51" customHeight="1">
       <c r="A35" s="15"/>
       <c r="B35" s="16"/>
       <c r="C35" s="7"/>
@@ -2246,8 +2302,9 @@
       <c r="G35" s="20"/>
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
-    </row>
-    <row r="36" spans="1:9" ht="51" customHeight="1">
+      <c r="J35" s="16"/>
+    </row>
+    <row r="36" spans="1:10" ht="51" customHeight="1">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="7"/>
@@ -2257,8 +2314,9 @@
       <c r="G36" s="20"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
-    </row>
-    <row r="37" spans="1:9" ht="51" customHeight="1">
+      <c r="J36" s="16"/>
+    </row>
+    <row r="37" spans="1:10" ht="51" customHeight="1">
       <c r="A37" s="15"/>
       <c r="B37" s="16"/>
       <c r="C37" s="7"/>
@@ -2268,8 +2326,9 @@
       <c r="G37" s="20"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
-    </row>
-    <row r="38" spans="1:9" ht="51" customHeight="1">
+      <c r="J37" s="16"/>
+    </row>
+    <row r="38" spans="1:10" ht="51" customHeight="1">
       <c r="A38" s="15"/>
       <c r="B38" s="16"/>
       <c r="C38" s="7"/>
@@ -2279,8 +2338,9 @@
       <c r="G38" s="20"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
-    </row>
-    <row r="39" spans="1:9" ht="51" customHeight="1">
+      <c r="J38" s="16"/>
+    </row>
+    <row r="39" spans="1:10" ht="51" customHeight="1">
       <c r="A39" s="15"/>
       <c r="B39" s="16"/>
       <c r="C39" s="7"/>
@@ -2290,8 +2350,9 @@
       <c r="G39" s="20"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
-    </row>
-    <row r="40" spans="1:9" ht="51" customHeight="1">
+      <c r="J39" s="16"/>
+    </row>
+    <row r="40" spans="1:10" ht="51" customHeight="1">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="7"/>
@@ -2301,8 +2362,9 @@
       <c r="G40" s="20"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
-    </row>
-    <row r="41" spans="1:9" ht="51" customHeight="1">
+      <c r="J40" s="16"/>
+    </row>
+    <row r="41" spans="1:10" ht="51" customHeight="1">
       <c r="A41" s="15"/>
       <c r="B41" s="16"/>
       <c r="C41" s="7"/>
@@ -2312,8 +2374,9 @@
       <c r="G41" s="20"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
-    </row>
-    <row r="42" spans="1:9" ht="51" customHeight="1">
+      <c r="J41" s="16"/>
+    </row>
+    <row r="42" spans="1:10" ht="51" customHeight="1">
       <c r="A42" s="15"/>
       <c r="B42" s="16"/>
       <c r="C42" s="7"/>
@@ -2323,8 +2386,9 @@
       <c r="G42" s="20"/>
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
-    </row>
-    <row r="43" spans="1:9" ht="51" customHeight="1">
+      <c r="J42" s="16"/>
+    </row>
+    <row r="43" spans="1:10" ht="51" customHeight="1">
       <c r="A43" s="15"/>
       <c r="B43" s="16"/>
       <c r="C43" s="7"/>
@@ -2334,8 +2398,9 @@
       <c r="G43" s="20"/>
       <c r="H43" s="16"/>
       <c r="I43" s="16"/>
-    </row>
-    <row r="44" spans="1:9" ht="51" customHeight="1">
+      <c r="J43" s="16"/>
+    </row>
+    <row r="44" spans="1:10" ht="51" customHeight="1">
       <c r="A44" s="15"/>
       <c r="B44" s="16"/>
       <c r="C44" s="7"/>
@@ -2345,8 +2410,9 @@
       <c r="G44" s="20"/>
       <c r="H44" s="16"/>
       <c r="I44" s="16"/>
-    </row>
-    <row r="45" spans="1:9" ht="51" customHeight="1">
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="1:10" ht="51" customHeight="1">
       <c r="A45" s="15"/>
       <c r="B45" s="16"/>
       <c r="C45" s="7"/>
@@ -2356,8 +2422,9 @@
       <c r="G45" s="20"/>
       <c r="H45" s="16"/>
       <c r="I45" s="16"/>
-    </row>
-    <row r="46" spans="1:9" ht="51" customHeight="1">
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" spans="1:10" ht="51" customHeight="1">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
       <c r="C46" s="7"/>
@@ -2367,17 +2434,18 @@
       <c r="G46" s="20"/>
       <c r="H46" s="16"/>
       <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:I5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="E2:G2"/>
+    <mergeCell ref="G5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P/&amp;N&amp;R株式会社テクノコア
 教育事業部ＩＴスクールＡｘｉＺ</oddFooter>

--- a/template/daily.xlsx
+++ b/template/daily.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kishimotokeisuke/fullstack/fullstack-node/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A822B3-5A4B-064B-94DA-6501C8BC7965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32CBE52-2762-9F49-9CC5-591ABD156E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原紙(通常)" sheetId="18" r:id="rId1"/>
@@ -779,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -816,9 +816,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -880,9 +877,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -890,6 +884,9 @@
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1253,13 +1250,13 @@
     </row>
     <row r="3" spans="2:6" ht="9" customHeight="1"/>
     <row r="4" spans="2:6">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
@@ -1287,13 +1284,13 @@
     </row>
     <row r="7" spans="2:6" ht="10" customHeight="1"/>
     <row r="8" spans="2:6">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2" t="s">
@@ -1319,13 +1316,13 @@
     </row>
     <row r="11" spans="2:6" ht="9" customHeight="1"/>
     <row r="12" spans="2:6">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2" t="s">
@@ -1350,13 +1347,13 @@
       <c r="F14" s="10"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
@@ -1384,13 +1381,13 @@
     </row>
     <row r="19" spans="2:6" ht="11" customHeight="1"/>
     <row r="20" spans="2:6">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" s="2" t="s">
@@ -1418,20 +1415,20 @@
     </row>
     <row r="23" spans="2:6" ht="10" customHeight="1"/>
     <row r="24" spans="2:6">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
     </row>
     <row r="25" spans="2:6" ht="112" customHeight="1">
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1456,9 +1453,7 @@
   </sheetPr>
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1476,13 +1471,13 @@
     </row>
     <row r="3" spans="2:6" ht="9" customHeight="1"/>
     <row r="4" spans="2:6">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
@@ -1510,13 +1505,13 @@
     </row>
     <row r="7" spans="2:6" ht="10" customHeight="1"/>
     <row r="8" spans="2:6">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2" t="s">
@@ -1542,13 +1537,13 @@
     </row>
     <row r="11" spans="2:6" ht="9" customHeight="1"/>
     <row r="12" spans="2:6">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2" t="s">
@@ -1573,13 +1568,13 @@
       <c r="F14" s="10"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
@@ -1619,28 +1614,28 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" ht="113" customHeight="1">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="2:6" ht="10" customHeight="1"/>
     <row r="22" spans="2:6">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="2:6" ht="112" customHeight="1">
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1664,9 +1659,7 @@
   </sheetPr>
   <dimension ref="B1:F23"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1684,13 +1677,13 @@
     </row>
     <row r="3" spans="2:6" ht="9" customHeight="1"/>
     <row r="4" spans="2:6">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="2" t="s">
@@ -1718,13 +1711,13 @@
     </row>
     <row r="7" spans="2:6" ht="10" customHeight="1"/>
     <row r="8" spans="2:6">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="2" t="s">
@@ -1750,13 +1743,13 @@
     </row>
     <row r="11" spans="2:6" ht="9" customHeight="1"/>
     <row r="12" spans="2:6">
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="2" t="s">
@@ -1781,13 +1774,13 @@
       <c r="F14" s="10"/>
     </row>
     <row r="16" spans="2:6">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="2" t="s">
@@ -1827,28 +1820,28 @@
       <c r="F19" s="9"/>
     </row>
     <row r="20" spans="2:6" ht="113" customHeight="1">
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
     </row>
     <row r="21" spans="2:6" ht="10" customHeight="1"/>
     <row r="22" spans="2:6">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
     </row>
     <row r="23" spans="2:6" ht="112" customHeight="1">
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1878,563 +1871,563 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11" style="29" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="29" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="29" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" style="29" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="29" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="29"/>
+    <col min="1" max="1" width="11" style="28" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="28" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" style="28" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="28" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="28" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="28" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="5" spans="1:10" ht="25" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="39" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" ht="25" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="22" t="s">
+      <c r="E6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="24" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="51" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="7"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="51" customHeight="1">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="7"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="51" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="7"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="51" customHeight="1">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="7"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="51" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="7"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="51" customHeight="1">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="7"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
     </row>
     <row r="13" spans="1:10" ht="51" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="51" customHeight="1">
-      <c r="A14" s="15"/>
-      <c r="B14" s="16"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="51" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="51" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="7"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" ht="51" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="7"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
     </row>
     <row r="18" spans="1:10" ht="51" customHeight="1">
-      <c r="A18" s="15"/>
-      <c r="B18" s="16"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="7"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" ht="51" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
     </row>
     <row r="20" spans="1:10" ht="51" customHeight="1">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="7"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
     </row>
     <row r="21" spans="1:10" ht="51" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="7"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
     </row>
     <row r="22" spans="1:10" ht="51" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:10" ht="51" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="51" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="7"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:10" ht="51" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="15"/>
       <c r="C25" s="7"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" ht="51" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="15"/>
       <c r="C26" s="7"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10" ht="51" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" ht="51" customHeight="1">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
       <c r="C28" s="7"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10" ht="51" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="7"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
     </row>
     <row r="30" spans="1:10" ht="51" customHeight="1">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10" ht="51" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="7"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="1:10" ht="51" customHeight="1">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="7"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" ht="51" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16"/>
+      <c r="A33" s="14"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="7"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" spans="1:10" ht="51" customHeight="1">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="15"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
     </row>
     <row r="35" spans="1:10" ht="51" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="7"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:10" ht="51" customHeight="1">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="7"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
     </row>
     <row r="37" spans="1:10" ht="51" customHeight="1">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="7"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
     </row>
     <row r="38" spans="1:10" ht="51" customHeight="1">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="7"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10" ht="51" customHeight="1">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10" ht="51" customHeight="1">
-      <c r="A40" s="15"/>
-      <c r="B40" s="16"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
       <c r="C40" s="7"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:10" ht="51" customHeight="1">
-      <c r="A41" s="15"/>
-      <c r="B41" s="16"/>
+      <c r="A41" s="14"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="7"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" ht="51" customHeight="1">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16"/>
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
     </row>
     <row r="43" spans="1:10" ht="51" customHeight="1">
-      <c r="A43" s="15"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="7"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="19"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
     </row>
     <row r="44" spans="1:10" ht="51" customHeight="1">
-      <c r="A44" s="15"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="7"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
     </row>
     <row r="45" spans="1:10" ht="51" customHeight="1">
-      <c r="A45" s="15"/>
-      <c r="B45" s="16"/>
+      <c r="A45" s="14"/>
+      <c r="B45" s="15"/>
       <c r="C45" s="7"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="19"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
     </row>
     <row r="46" spans="1:10" ht="51" customHeight="1">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="14"/>
+      <c r="B46" s="15"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="4">
